--- a/output_report/tong_hop/Cut_file.xlsx
+++ b/output_report/tong_hop/Cut_file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="21">
   <si>
     <t>Làn điệu</t>
   </si>
@@ -80,6 +80,15 @@
   <si>
     <t>quan họ</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Quan họ</t>
+  </si>
+  <si>
+    <t>Quan Họ</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +116,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -116,13 +131,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +476,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +499,42 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
@@ -440,6 +546,42 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>71.2</v>
+      </c>
+      <c r="C3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>67.8</v>
+      </c>
+      <c r="G3">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>71.2</v>
+      </c>
+      <c r="K3">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="O3">
+        <v>76</v>
+      </c>
       <c r="Q3" t="s">
         <v>3</v>
       </c>
@@ -451,6 +593,42 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>75.2</v>
+      </c>
+      <c r="C4">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>73.12</v>
+      </c>
+      <c r="G4">
+        <v>77.8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>75.2</v>
+      </c>
+      <c r="K4">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>83.2</v>
+      </c>
+      <c r="O4">
+        <v>77.400000000000006</v>
+      </c>
       <c r="Q4" t="s">
         <v>4</v>
       </c>
@@ -462,6 +640,42 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>79.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G5">
+        <v>82.2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>77.2</v>
+      </c>
+      <c r="K5">
+        <v>79.8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>85.4</v>
+      </c>
+      <c r="O5">
+        <v>81.2</v>
+      </c>
       <c r="Q5" t="s">
         <v>5</v>
       </c>
@@ -473,6 +687,42 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>79.8</v>
+      </c>
+      <c r="C6">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="G6">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="K6">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>85.8</v>
+      </c>
+      <c r="O6">
+        <v>80.400000000000006</v>
+      </c>
       <c r="Q6" t="s">
         <v>6</v>
       </c>
@@ -484,6 +734,42 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>80.8</v>
+      </c>
+      <c r="C7">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G7">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>82.6</v>
+      </c>
+      <c r="K7">
+        <v>81.8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>88.2</v>
+      </c>
+      <c r="O7">
+        <v>81.400000000000006</v>
+      </c>
       <c r="Q7" t="s">
         <v>7</v>
       </c>
@@ -495,6 +781,42 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>81.8</v>
+      </c>
+      <c r="C8">
+        <v>79.8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G8">
+        <v>82.4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>84</v>
+      </c>
+      <c r="K8">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>89.4</v>
+      </c>
+      <c r="O8">
+        <v>82</v>
+      </c>
       <c r="Q8" t="s">
         <v>8</v>
       </c>
@@ -506,6 +828,42 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>82.6</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>83.4</v>
+      </c>
+      <c r="G9">
+        <v>83.2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>85.4</v>
+      </c>
+      <c r="K9">
+        <v>83.4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>90.6</v>
+      </c>
+      <c r="O9">
+        <v>82.8</v>
+      </c>
       <c r="Q9" t="s">
         <v>9</v>
       </c>
@@ -514,6 +872,53 @@
       </c>
       <c r="S9">
         <v>84.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>87.4</v>
+      </c>
+      <c r="C10">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>88.4</v>
+      </c>
+      <c r="G10">
+        <v>85.8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>91.6</v>
+      </c>
+      <c r="K10">
+        <v>88.8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>93</v>
+      </c>
+      <c r="O10">
+        <v>89.4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>94.6</v>
+      </c>
+      <c r="S10">
+        <v>92.8</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -606,7 +1011,7 @@
         <v>94.2</v>
       </c>
       <c r="O15">
-        <v>89.8</v>
+        <v>89.79</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -882,137 +1287,615 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>16</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>32</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1">
         <v>64</v>
       </c>
-      <c r="M1" s="1">
+      <c r="P1" s="1">
         <v>128</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="U1" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
       <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="C3">
+        <v>33.96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>41.46</v>
+      </c>
+      <c r="I3" s="4">
+        <f>AVERAGE(G3,H3)</f>
+        <v>45.730000000000004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>58.04</v>
+      </c>
+      <c r="M3">
+        <v>53.04</v>
+      </c>
+      <c r="N3" s="4">
+        <f>AVERAGE(L3,M3)</f>
+        <v>55.54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>69.2</v>
+      </c>
       <c r="R3">
+        <v>60.42</v>
+      </c>
+      <c r="S3" s="4">
+        <f>AVERAGE(Q3,R3)</f>
+        <v>64.81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3">
         <v>80.2</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q4" t="s">
+      <c r="X3" s="4">
+        <f>AVERAGE(V3,W3)</f>
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>46.04</v>
+      </c>
+      <c r="C4">
+        <v>49.58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>58.13</v>
+      </c>
+      <c r="H4">
+        <v>54.35</v>
+      </c>
+      <c r="I4" s="4">
+        <f>AVERAGE(G4,H4)</f>
+        <v>56.24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="M4">
+        <v>65.91</v>
+      </c>
+      <c r="N4" s="4">
+        <f>AVERAGE(L4,M4)</f>
+        <v>67.63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>81.400000000000006</v>
+      </c>
       <c r="R4">
+        <v>69.55</v>
+      </c>
+      <c r="S4" s="4">
+        <f>AVERAGE(Q4,R4)</f>
+        <v>75.474999999999994</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4">
         <v>90.4</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q5" t="s">
+      <c r="X4" s="4">
+        <f>AVERAGE(V4,W4)</f>
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>55.42</v>
+      </c>
+      <c r="C5">
+        <v>53.75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>66.09</v>
+      </c>
+      <c r="H5">
+        <v>60.4</v>
+      </c>
+      <c r="I5" s="4">
+        <f>AVERAGE(G5,H5)</f>
+        <v>63.245000000000005</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>79.17</v>
+      </c>
+      <c r="M5">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="N5" s="4">
+        <f>AVERAGE(L5,M5)</f>
+        <v>74.69</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>87.5</v>
+      </c>
       <c r="R5">
+        <v>80.22</v>
+      </c>
+      <c r="S5" s="4">
+        <f>AVERAGE(Q5,R5)</f>
+        <v>83.86</v>
+      </c>
+      <c r="U5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5">
         <v>93.4</v>
       </c>
-      <c r="S5">
-        <v>85.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q6" t="s">
+      <c r="W5">
+        <v>85.83</v>
+      </c>
+      <c r="X5" s="4">
+        <f>AVERAGE(V5,W5)</f>
+        <v>89.615000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>61.25</v>
+      </c>
+      <c r="C6">
+        <v>58.96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>71.52</v>
+      </c>
+      <c r="H6">
+        <v>66.67</v>
+      </c>
+      <c r="I6" s="4">
+        <f>AVERAGE(G6,H6)</f>
+        <v>69.094999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>82.92</v>
+      </c>
+      <c r="M6">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="N6" s="4">
+        <f>AVERAGE(L6,M6)</f>
+        <v>79.48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>91.46</v>
+      </c>
       <c r="R6">
+        <v>85.21</v>
+      </c>
+      <c r="S6" s="4">
+        <f>AVERAGE(Q6,R6)</f>
+        <v>88.334999999999994</v>
+      </c>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6">
         <v>96</v>
       </c>
-      <c r="S6">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q7" t="s">
+      <c r="W6">
+        <v>90.63</v>
+      </c>
+      <c r="X6" s="4">
+        <f>AVERAGE(V6,W6)</f>
+        <v>93.314999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>64.38</v>
+      </c>
+      <c r="C7">
+        <v>61.25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="H7">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="I7" s="4">
+        <f>AVERAGE(G7,H7)</f>
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>84.4</v>
+      </c>
+      <c r="M7">
+        <v>80.8</v>
+      </c>
+      <c r="N7" s="4">
+        <f>AVERAGE(L7,M7)</f>
+        <v>82.6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>93.8</v>
+      </c>
       <c r="R7">
+        <v>89.17</v>
+      </c>
+      <c r="S7" s="4">
+        <f>AVERAGE(Q7,R7)</f>
+        <v>91.484999999999999</v>
+      </c>
+      <c r="U7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7">
         <v>97.2</v>
       </c>
-      <c r="S7">
+      <c r="W7">
+        <v>94.17</v>
+      </c>
+      <c r="X7" s="4">
+        <f>AVERAGE(V7,W7)</f>
+        <v>95.685000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>65.63</v>
+      </c>
+      <c r="C8">
+        <v>66.88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H8">
+        <v>75.2</v>
+      </c>
+      <c r="I8" s="4">
+        <f>AVERAGE(G8,H8)</f>
+        <v>77.300000000000011</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>86.88</v>
+      </c>
+      <c r="M8">
+        <v>85.22</v>
+      </c>
+      <c r="N8" s="4">
+        <f>AVERAGE(L8,M8)</f>
+        <v>86.05</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>94.4</v>
+      </c>
+      <c r="R8">
+        <v>91.8</v>
+      </c>
+      <c r="S8" s="4">
+        <f>AVERAGE(Q8,R8)</f>
+        <v>93.1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>98</v>
+      </c>
+      <c r="W8">
+        <v>95.6</v>
+      </c>
+      <c r="X8" s="4">
+        <f>AVERAGE(V8,W8)</f>
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>68.13</v>
+      </c>
+      <c r="C9">
+        <v>74.38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>81.2</v>
+      </c>
+      <c r="H9">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I9" s="4">
+        <f>AVERAGE(G9,H9)</f>
+        <v>80.900000000000006</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>88.33</v>
+      </c>
+      <c r="M9">
+        <v>88.75</v>
+      </c>
+      <c r="N9" s="4">
+        <f>AVERAGE(L9,M9)</f>
+        <v>88.539999999999992</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>95</v>
+      </c>
+      <c r="R9">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8">
-        <v>98</v>
-      </c>
-      <c r="S8">
-        <v>95.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q9" t="s">
+      <c r="S9" s="4">
+        <f>AVERAGE(Q9,R9)</f>
+        <v>94.6</v>
+      </c>
+      <c r="U9" t="s">
         <v>9</v>
       </c>
-      <c r="R9">
+      <c r="V9">
         <v>98.6</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>97.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X9" s="4">
+        <f>AVERAGE(V9,W9)</f>
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>81.5</v>
+      </c>
+      <c r="C10">
+        <v>92.2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>89.38</v>
+      </c>
+      <c r="H10">
+        <v>95.4</v>
+      </c>
+      <c r="I10" s="5">
+        <f>AVERAGE(G10,H10)</f>
+        <v>92.39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>95.63</v>
+      </c>
+      <c r="M10">
+        <v>98.4</v>
+      </c>
+      <c r="N10" s="5">
+        <f>AVERAGE(L10,M10)</f>
+        <v>97.015000000000001</v>
+      </c>
+      <c r="P10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>99.38</v>
+      </c>
+      <c r="R10">
+        <v>99.6</v>
+      </c>
+      <c r="S10" s="5">
+        <f>AVERAGE(Q10,R10)</f>
+        <v>99.49</v>
+      </c>
+      <c r="U10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10" s="7">
+        <f>AVERAGE(V10,W10)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>512</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1024</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>2048</v>
       </c>
-      <c r="M13" s="1">
+      <c r="P13" s="1">
         <v>4096</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="U13" s="1">
         <v>8192</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1022,26 +1905,47 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
         <v>12</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1049,28 +1953,53 @@
         <v>84.4</v>
       </c>
       <c r="C15">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="E15" t="s">
+        <v>72.61</v>
+      </c>
+      <c r="D15" s="4">
+        <f>AVERAGE(B15,C15)</f>
+        <v>78.504999999999995</v>
+      </c>
+      <c r="F15" t="s">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>86.6</v>
       </c>
-      <c r="G15">
-        <v>77.3</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15">
+        <v>77.290000000000006</v>
+      </c>
+      <c r="I15" s="6">
+        <f>AVERAGE(G15,H15)</f>
+        <v>81.944999999999993</v>
+      </c>
+      <c r="K15" t="s">
         <v>3</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>82.4</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>79.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="4">
+        <f>AVERAGE(L15,M15)</f>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>85.6</v>
+      </c>
+      <c r="R15">
+        <v>77</v>
+      </c>
+      <c r="S15" s="4">
+        <f>AVERAGE(Q15,R15)</f>
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1078,28 +2007,53 @@
         <v>90.8</v>
       </c>
       <c r="C16">
-        <v>84.6</v>
-      </c>
-      <c r="E16" t="s">
+        <v>84.58</v>
+      </c>
+      <c r="D16" s="4">
+        <f>AVERAGE(B16,C16)</f>
+        <v>87.69</v>
+      </c>
+      <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>93.2</v>
       </c>
-      <c r="G16">
-        <v>86.3</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16">
+        <v>86.25</v>
+      </c>
+      <c r="I16" s="4">
+        <f>AVERAGE(G16,H16)</f>
+        <v>89.724999999999994</v>
+      </c>
+      <c r="K16" t="s">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>90</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="4">
+        <f>AVERAGE(L16,M16)</f>
+        <v>88.5</v>
+      </c>
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>94.2</v>
+      </c>
+      <c r="R16">
+        <v>87</v>
+      </c>
+      <c r="S16" s="6">
+        <f>AVERAGE(Q16,R16)</f>
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1107,28 +2061,53 @@
         <v>96.2</v>
       </c>
       <c r="C17">
-        <v>91.3</v>
-      </c>
-      <c r="E17" t="s">
+        <v>91.25</v>
+      </c>
+      <c r="D17" s="4">
+        <f>AVERAGE(B17,C17)</f>
+        <v>93.724999999999994</v>
+      </c>
+      <c r="F17" t="s">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>97</v>
       </c>
-      <c r="G17">
-        <v>91.3</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17">
+        <v>91.25</v>
+      </c>
+      <c r="I17" s="6">
+        <f>AVERAGE(G17,H17)</f>
+        <v>94.125</v>
+      </c>
+      <c r="K17" t="s">
         <v>5</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>94.8</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>92.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="4">
+        <f>AVERAGE(L17,M17)</f>
+        <v>93.6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <v>96.8</v>
+      </c>
+      <c r="R17">
+        <v>90.8</v>
+      </c>
+      <c r="S17" s="4">
+        <f>AVERAGE(Q17,R17)</f>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1136,28 +2115,53 @@
         <v>97.2</v>
       </c>
       <c r="C18">
-        <v>94.8</v>
-      </c>
-      <c r="E18" t="s">
+        <v>94.79</v>
+      </c>
+      <c r="D18" s="4">
+        <f>AVERAGE(B18,C18)</f>
+        <v>95.995000000000005</v>
+      </c>
+      <c r="F18" t="s">
         <v>6</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>97.8</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>95</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4">
+        <f>AVERAGE(G18,H18)</f>
+        <v>96.4</v>
+      </c>
+      <c r="K18" t="s">
         <v>6</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>97.4</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>95.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N18" s="4">
+        <f>AVERAGE(L18,M18)</f>
+        <v>96.300000000000011</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>97.4</v>
+      </c>
+      <c r="R18">
+        <v>94.4</v>
+      </c>
+      <c r="S18" s="6">
+        <f>AVERAGE(Q18,R18)</f>
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1165,28 +2169,53 @@
         <v>98.6</v>
       </c>
       <c r="C19">
+        <v>96.04</v>
+      </c>
+      <c r="D19" s="4">
+        <f>AVERAGE(B19,C19)</f>
+        <v>97.32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>99.2</v>
+      </c>
+      <c r="H19">
         <v>96</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" s="4">
+        <f>AVERAGE(G19,H19)</f>
+        <v>97.6</v>
+      </c>
+      <c r="K19" t="s">
         <v>7</v>
       </c>
-      <c r="F19">
-        <v>99.2</v>
-      </c>
-      <c r="G19">
+      <c r="L19">
+        <v>98.8</v>
+      </c>
+      <c r="M19">
+        <v>96.6</v>
+      </c>
+      <c r="N19" s="6">
+        <f>AVERAGE(L19,M19)</f>
+        <v>97.699999999999989</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>98.4</v>
+      </c>
+      <c r="R19">
         <v>96</v>
       </c>
-      <c r="I19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19">
-        <v>98.8</v>
-      </c>
-      <c r="K19">
-        <v>96.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="S19" s="4">
+        <f>AVERAGE(Q19,R19)</f>
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1196,26 +2225,51 @@
       <c r="C20">
         <v>96.6</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" s="4">
+        <f>AVERAGE(B20,C20)</f>
+        <v>98.1</v>
+      </c>
+      <c r="F20" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>99.4</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>97.4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4">
+        <f>AVERAGE(G20,H20)</f>
+        <v>98.4</v>
+      </c>
+      <c r="K20" t="s">
         <v>8</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>99.2</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20" s="6">
+        <f>AVERAGE(L20,M20)</f>
+        <v>98.6</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>99.2</v>
+      </c>
+      <c r="R20">
+        <v>97.2</v>
+      </c>
+      <c r="S20" s="4">
+        <f>AVERAGE(Q20,R20)</f>
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1225,26 +2279,51 @@
       <c r="C21">
         <v>98.2</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="4">
+        <f>AVERAGE(B21,C21)</f>
+        <v>98.9</v>
+      </c>
+      <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>99.2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>98.8</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4">
+        <f>AVERAGE(G21,H21)</f>
+        <v>99</v>
+      </c>
+      <c r="K21" t="s">
         <v>9</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>99</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21" s="4">
+        <f>AVERAGE(L21,M21)</f>
+        <v>99</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>99.6</v>
+      </c>
+      <c r="R21">
+        <v>98.6</v>
+      </c>
+      <c r="S21" s="6">
+        <f>AVERAGE(Q21,R21)</f>
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1254,22 +2333,44 @@
       <c r="C22">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="5">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
         <v>11</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22" s="5">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>100</v>
       </c>
-      <c r="K22">
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22" s="5">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22" s="5">
+        <f>AVERAGE(Q22,R22)</f>
         <v>100</v>
       </c>
     </row>

--- a/output_report/tong_hop/Cut_file.xlsx
+++ b/output_report/tong_hop/Cut_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alize\output_report\tong_hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sourse_code_gr\output_report\tong_hop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Phân theo loại" sheetId="1" r:id="rId1"/>
     <sheet name="Phân theo làn điệu" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="36">
   <si>
     <t>Làn điệu</t>
   </si>
@@ -88,19 +89,70 @@
   </si>
   <si>
     <t>TB</t>
+  </si>
+  <si>
+    <t>Độ chính xác trung bình</t>
+  </si>
+  <si>
+    <t>84,40%</t>
+  </si>
+  <si>
+    <t>90,80%</t>
+  </si>
+  <si>
+    <t>96,20%</t>
+  </si>
+  <si>
+    <t>97,20%</t>
+  </si>
+  <si>
+    <t>98,60%</t>
+  </si>
+  <si>
+    <t>99,60%</t>
+  </si>
+  <si>
+    <t>Thời gian của file thử nghiệm</t>
+  </si>
+  <si>
+    <t>98,20%</t>
+  </si>
+  <si>
+    <t>96,60%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -123,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,11 +220,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,6 +259,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +555,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1473,7 @@
         <v>41.46</v>
       </c>
       <c r="I3" s="4">
-        <f>AVERAGE(G3,H3)</f>
+        <f t="shared" ref="I3:I10" si="0">AVERAGE(G3,H3)</f>
         <v>45.730000000000004</v>
       </c>
       <c r="K3" t="s">
@@ -1407,7 +1486,7 @@
         <v>53.04</v>
       </c>
       <c r="N3" s="4">
-        <f>AVERAGE(L3,M3)</f>
+        <f t="shared" ref="N3:N10" si="1">AVERAGE(L3,M3)</f>
         <v>55.54</v>
       </c>
       <c r="P3" t="s">
@@ -1420,7 +1499,7 @@
         <v>60.42</v>
       </c>
       <c r="S3" s="4">
-        <f>AVERAGE(Q3,R3)</f>
+        <f t="shared" ref="S3:S10" si="2">AVERAGE(Q3,R3)</f>
         <v>64.81</v>
       </c>
       <c r="U3" t="s">
@@ -1433,7 +1512,7 @@
         <v>70</v>
       </c>
       <c r="X3" s="4">
-        <f>AVERAGE(V3,W3)</f>
+        <f t="shared" ref="X3:X10" si="3">AVERAGE(V3,W3)</f>
         <v>75.099999999999994</v>
       </c>
     </row>
@@ -1457,7 +1536,7 @@
         <v>54.35</v>
       </c>
       <c r="I4" s="4">
-        <f>AVERAGE(G4,H4)</f>
+        <f t="shared" si="0"/>
         <v>56.24</v>
       </c>
       <c r="K4" t="s">
@@ -1470,7 +1549,7 @@
         <v>65.91</v>
       </c>
       <c r="N4" s="4">
-        <f>AVERAGE(L4,M4)</f>
+        <f t="shared" si="1"/>
         <v>67.63</v>
       </c>
       <c r="P4" t="s">
@@ -1483,7 +1562,7 @@
         <v>69.55</v>
       </c>
       <c r="S4" s="4">
-        <f>AVERAGE(Q4,R4)</f>
+        <f t="shared" si="2"/>
         <v>75.474999999999994</v>
       </c>
       <c r="U4" t="s">
@@ -1496,7 +1575,7 @@
         <v>80</v>
       </c>
       <c r="X4" s="4">
-        <f>AVERAGE(V4,W4)</f>
+        <f t="shared" si="3"/>
         <v>85.2</v>
       </c>
     </row>
@@ -1520,7 +1599,7 @@
         <v>60.4</v>
       </c>
       <c r="I5" s="4">
-        <f>AVERAGE(G5,H5)</f>
+        <f t="shared" si="0"/>
         <v>63.245000000000005</v>
       </c>
       <c r="K5" t="s">
@@ -1533,7 +1612,7 @@
         <v>70.209999999999994</v>
       </c>
       <c r="N5" s="4">
-        <f>AVERAGE(L5,M5)</f>
+        <f t="shared" si="1"/>
         <v>74.69</v>
       </c>
       <c r="P5" t="s">
@@ -1546,7 +1625,7 @@
         <v>80.22</v>
       </c>
       <c r="S5" s="4">
-        <f>AVERAGE(Q5,R5)</f>
+        <f t="shared" si="2"/>
         <v>83.86</v>
       </c>
       <c r="U5" t="s">
@@ -1559,7 +1638,7 @@
         <v>85.83</v>
       </c>
       <c r="X5" s="4">
-        <f>AVERAGE(V5,W5)</f>
+        <f t="shared" si="3"/>
         <v>89.615000000000009</v>
       </c>
     </row>
@@ -1583,7 +1662,7 @@
         <v>66.67</v>
       </c>
       <c r="I6" s="4">
-        <f>AVERAGE(G6,H6)</f>
+        <f t="shared" si="0"/>
         <v>69.094999999999999</v>
       </c>
       <c r="K6" t="s">
@@ -1596,7 +1675,7 @@
         <v>76.040000000000006</v>
       </c>
       <c r="N6" s="4">
-        <f>AVERAGE(L6,M6)</f>
+        <f t="shared" si="1"/>
         <v>79.48</v>
       </c>
       <c r="P6" t="s">
@@ -1609,7 +1688,7 @@
         <v>85.21</v>
       </c>
       <c r="S6" s="4">
-        <f>AVERAGE(Q6,R6)</f>
+        <f t="shared" si="2"/>
         <v>88.334999999999994</v>
       </c>
       <c r="U6" t="s">
@@ -1622,7 +1701,7 @@
         <v>90.63</v>
       </c>
       <c r="X6" s="4">
-        <f>AVERAGE(V6,W6)</f>
+        <f t="shared" si="3"/>
         <v>93.314999999999998</v>
       </c>
     </row>
@@ -1646,7 +1725,7 @@
         <v>71.959999999999994</v>
       </c>
       <c r="I7" s="4">
-        <f>AVERAGE(G7,H7)</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="K7" t="s">
@@ -1659,7 +1738,7 @@
         <v>80.8</v>
       </c>
       <c r="N7" s="4">
-        <f>AVERAGE(L7,M7)</f>
+        <f t="shared" si="1"/>
         <v>82.6</v>
       </c>
       <c r="P7" t="s">
@@ -1672,7 +1751,7 @@
         <v>89.17</v>
       </c>
       <c r="S7" s="4">
-        <f>AVERAGE(Q7,R7)</f>
+        <f t="shared" si="2"/>
         <v>91.484999999999999</v>
       </c>
       <c r="U7" t="s">
@@ -1685,7 +1764,7 @@
         <v>94.17</v>
       </c>
       <c r="X7" s="4">
-        <f>AVERAGE(V7,W7)</f>
+        <f t="shared" si="3"/>
         <v>95.685000000000002</v>
       </c>
     </row>
@@ -1709,7 +1788,7 @@
         <v>75.2</v>
       </c>
       <c r="I8" s="4">
-        <f>AVERAGE(G8,H8)</f>
+        <f t="shared" si="0"/>
         <v>77.300000000000011</v>
       </c>
       <c r="K8" t="s">
@@ -1722,7 +1801,7 @@
         <v>85.22</v>
       </c>
       <c r="N8" s="4">
-        <f>AVERAGE(L8,M8)</f>
+        <f t="shared" si="1"/>
         <v>86.05</v>
       </c>
       <c r="P8" t="s">
@@ -1735,7 +1814,7 @@
         <v>91.8</v>
       </c>
       <c r="S8" s="4">
-        <f>AVERAGE(Q8,R8)</f>
+        <f t="shared" si="2"/>
         <v>93.1</v>
       </c>
       <c r="U8" t="s">
@@ -1748,7 +1827,7 @@
         <v>95.6</v>
       </c>
       <c r="X8" s="4">
-        <f>AVERAGE(V8,W8)</f>
+        <f t="shared" si="3"/>
         <v>96.8</v>
       </c>
     </row>
@@ -1772,7 +1851,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="I9" s="4">
-        <f>AVERAGE(G9,H9)</f>
+        <f t="shared" si="0"/>
         <v>80.900000000000006</v>
       </c>
       <c r="K9" t="s">
@@ -1785,7 +1864,7 @@
         <v>88.75</v>
       </c>
       <c r="N9" s="4">
-        <f>AVERAGE(L9,M9)</f>
+        <f t="shared" si="1"/>
         <v>88.539999999999992</v>
       </c>
       <c r="P9" t="s">
@@ -1798,7 +1877,7 @@
         <v>94.2</v>
       </c>
       <c r="S9" s="4">
-        <f>AVERAGE(Q9,R9)</f>
+        <f t="shared" si="2"/>
         <v>94.6</v>
       </c>
       <c r="U9" t="s">
@@ -1811,7 +1890,7 @@
         <v>97.6</v>
       </c>
       <c r="X9" s="4">
-        <f>AVERAGE(V9,W9)</f>
+        <f t="shared" si="3"/>
         <v>98.1</v>
       </c>
     </row>
@@ -1835,7 +1914,7 @@
         <v>95.4</v>
       </c>
       <c r="I10" s="5">
-        <f>AVERAGE(G10,H10)</f>
+        <f t="shared" si="0"/>
         <v>92.39</v>
       </c>
       <c r="K10" t="s">
@@ -1848,7 +1927,7 @@
         <v>98.4</v>
       </c>
       <c r="N10" s="5">
-        <f>AVERAGE(L10,M10)</f>
+        <f t="shared" si="1"/>
         <v>97.015000000000001</v>
       </c>
       <c r="P10" t="s">
@@ -1861,7 +1940,7 @@
         <v>99.6</v>
       </c>
       <c r="S10" s="5">
-        <f>AVERAGE(Q10,R10)</f>
+        <f t="shared" si="2"/>
         <v>99.49</v>
       </c>
       <c r="U10" t="s">
@@ -1874,7 +1953,7 @@
         <v>100</v>
       </c>
       <c r="X10" s="7">
-        <f>AVERAGE(V10,W10)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1956,7 +2035,7 @@
         <v>72.61</v>
       </c>
       <c r="D15" s="4">
-        <f>AVERAGE(B15,C15)</f>
+        <f t="shared" ref="D15:D21" si="4">AVERAGE(B15,C15)</f>
         <v>78.504999999999995</v>
       </c>
       <c r="F15" t="s">
@@ -1969,7 +2048,7 @@
         <v>77.290000000000006</v>
       </c>
       <c r="I15" s="6">
-        <f>AVERAGE(G15,H15)</f>
+        <f t="shared" ref="I15:I21" si="5">AVERAGE(G15,H15)</f>
         <v>81.944999999999993</v>
       </c>
       <c r="K15" t="s">
@@ -1982,7 +2061,7 @@
         <v>79.8</v>
       </c>
       <c r="N15" s="4">
-        <f>AVERAGE(L15,M15)</f>
+        <f t="shared" ref="N15:N21" si="6">AVERAGE(L15,M15)</f>
         <v>81.099999999999994</v>
       </c>
       <c r="P15" t="s">
@@ -1995,7 +2074,7 @@
         <v>77</v>
       </c>
       <c r="S15" s="4">
-        <f>AVERAGE(Q15,R15)</f>
+        <f t="shared" ref="S15:S22" si="7">AVERAGE(Q15,R15)</f>
         <v>81.3</v>
       </c>
     </row>
@@ -2010,7 +2089,7 @@
         <v>84.58</v>
       </c>
       <c r="D16" s="4">
-        <f>AVERAGE(B16,C16)</f>
+        <f t="shared" si="4"/>
         <v>87.69</v>
       </c>
       <c r="F16" t="s">
@@ -2023,7 +2102,7 @@
         <v>86.25</v>
       </c>
       <c r="I16" s="4">
-        <f>AVERAGE(G16,H16)</f>
+        <f t="shared" si="5"/>
         <v>89.724999999999994</v>
       </c>
       <c r="K16" t="s">
@@ -2036,7 +2115,7 @@
         <v>87</v>
       </c>
       <c r="N16" s="4">
-        <f>AVERAGE(L16,M16)</f>
+        <f t="shared" si="6"/>
         <v>88.5</v>
       </c>
       <c r="P16" t="s">
@@ -2049,7 +2128,7 @@
         <v>87</v>
       </c>
       <c r="S16" s="6">
-        <f>AVERAGE(Q16,R16)</f>
+        <f t="shared" si="7"/>
         <v>90.6</v>
       </c>
     </row>
@@ -2064,7 +2143,7 @@
         <v>91.25</v>
       </c>
       <c r="D17" s="4">
-        <f>AVERAGE(B17,C17)</f>
+        <f t="shared" si="4"/>
         <v>93.724999999999994</v>
       </c>
       <c r="F17" t="s">
@@ -2077,7 +2156,7 @@
         <v>91.25</v>
       </c>
       <c r="I17" s="6">
-        <f>AVERAGE(G17,H17)</f>
+        <f t="shared" si="5"/>
         <v>94.125</v>
       </c>
       <c r="K17" t="s">
@@ -2090,7 +2169,7 @@
         <v>92.4</v>
       </c>
       <c r="N17" s="4">
-        <f>AVERAGE(L17,M17)</f>
+        <f t="shared" si="6"/>
         <v>93.6</v>
       </c>
       <c r="P17" t="s">
@@ -2103,7 +2182,7 @@
         <v>90.8</v>
       </c>
       <c r="S17" s="4">
-        <f>AVERAGE(Q17,R17)</f>
+        <f t="shared" si="7"/>
         <v>93.8</v>
       </c>
     </row>
@@ -2118,7 +2197,7 @@
         <v>94.79</v>
       </c>
       <c r="D18" s="4">
-        <f>AVERAGE(B18,C18)</f>
+        <f t="shared" si="4"/>
         <v>95.995000000000005</v>
       </c>
       <c r="F18" t="s">
@@ -2131,7 +2210,7 @@
         <v>95</v>
       </c>
       <c r="I18" s="4">
-        <f>AVERAGE(G18,H18)</f>
+        <f t="shared" si="5"/>
         <v>96.4</v>
       </c>
       <c r="K18" t="s">
@@ -2144,7 +2223,7 @@
         <v>95.2</v>
       </c>
       <c r="N18" s="4">
-        <f>AVERAGE(L18,M18)</f>
+        <f t="shared" si="6"/>
         <v>96.300000000000011</v>
       </c>
       <c r="P18" t="s">
@@ -2157,7 +2236,7 @@
         <v>94.4</v>
       </c>
       <c r="S18" s="6">
-        <f>AVERAGE(Q18,R18)</f>
+        <f t="shared" si="7"/>
         <v>95.9</v>
       </c>
     </row>
@@ -2172,7 +2251,7 @@
         <v>96.04</v>
       </c>
       <c r="D19" s="4">
-        <f>AVERAGE(B19,C19)</f>
+        <f t="shared" si="4"/>
         <v>97.32</v>
       </c>
       <c r="F19" t="s">
@@ -2185,7 +2264,7 @@
         <v>96</v>
       </c>
       <c r="I19" s="4">
-        <f>AVERAGE(G19,H19)</f>
+        <f t="shared" si="5"/>
         <v>97.6</v>
       </c>
       <c r="K19" t="s">
@@ -2198,7 +2277,7 @@
         <v>96.6</v>
       </c>
       <c r="N19" s="6">
-        <f>AVERAGE(L19,M19)</f>
+        <f t="shared" si="6"/>
         <v>97.699999999999989</v>
       </c>
       <c r="P19" t="s">
@@ -2211,7 +2290,7 @@
         <v>96</v>
       </c>
       <c r="S19" s="4">
-        <f>AVERAGE(Q19,R19)</f>
+        <f t="shared" si="7"/>
         <v>97.2</v>
       </c>
     </row>
@@ -2226,7 +2305,7 @@
         <v>96.6</v>
       </c>
       <c r="D20" s="4">
-        <f>AVERAGE(B20,C20)</f>
+        <f t="shared" si="4"/>
         <v>98.1</v>
       </c>
       <c r="F20" t="s">
@@ -2239,7 +2318,7 @@
         <v>97.4</v>
       </c>
       <c r="I20" s="4">
-        <f>AVERAGE(G20,H20)</f>
+        <f t="shared" si="5"/>
         <v>98.4</v>
       </c>
       <c r="K20" t="s">
@@ -2252,7 +2331,7 @@
         <v>98</v>
       </c>
       <c r="N20" s="6">
-        <f>AVERAGE(L20,M20)</f>
+        <f t="shared" si="6"/>
         <v>98.6</v>
       </c>
       <c r="P20" t="s">
@@ -2265,7 +2344,7 @@
         <v>97.2</v>
       </c>
       <c r="S20" s="4">
-        <f>AVERAGE(Q20,R20)</f>
+        <f t="shared" si="7"/>
         <v>98.2</v>
       </c>
     </row>
@@ -2280,7 +2359,7 @@
         <v>98.2</v>
       </c>
       <c r="D21" s="4">
-        <f>AVERAGE(B21,C21)</f>
+        <f t="shared" si="4"/>
         <v>98.9</v>
       </c>
       <c r="F21" t="s">
@@ -2293,7 +2372,7 @@
         <v>98.8</v>
       </c>
       <c r="I21" s="4">
-        <f>AVERAGE(G21,H21)</f>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="K21" t="s">
@@ -2306,7 +2385,7 @@
         <v>99</v>
       </c>
       <c r="N21" s="4">
-        <f>AVERAGE(L21,M21)</f>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="P21" t="s">
@@ -2319,7 +2398,7 @@
         <v>98.6</v>
       </c>
       <c r="S21" s="6">
-        <f>AVERAGE(Q21,R21)</f>
+        <f t="shared" si="7"/>
         <v>99.1</v>
       </c>
     </row>
@@ -2370,8 +2449,227 @@
         <v>100</v>
       </c>
       <c r="S22" s="5">
-        <f>AVERAGE(Q22,R22)</f>
+        <f t="shared" si="7"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
